--- a/teaching/traditional_assets/database/data/china/china_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_insurance_life.xlsx
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1485</v>
+        <v>0.11445</v>
       </c>
       <c r="E2">
-        <v>0.241</v>
+        <v>0.07730000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.025</v>
       </c>
       <c r="G2">
-        <v>0.1187023103327256</v>
+        <v>0.1469165805392611</v>
       </c>
       <c r="H2">
-        <v>0.1187023103327256</v>
+        <v>0.1469165805392611</v>
       </c>
       <c r="I2">
-        <v>0.1480961036830994</v>
+        <v>0.1378378659984185</v>
       </c>
       <c r="J2">
-        <v>0.1344427893439171</v>
+        <v>0.1289460748298135</v>
       </c>
       <c r="K2">
-        <v>30967.5</v>
+        <v>27175.1</v>
       </c>
       <c r="L2">
-        <v>0.1060322025628515</v>
+        <v>0.0792725100282638</v>
       </c>
       <c r="M2">
-        <v>7711.499999999999</v>
+        <v>16030.4</v>
       </c>
       <c r="N2">
-        <v>0.02012101571795353</v>
+        <v>0.04010196602299989</v>
       </c>
       <c r="O2">
-        <v>0.2490191329619762</v>
+        <v>0.5898929534757921</v>
       </c>
       <c r="P2">
-        <v>6408.099999999999</v>
+        <v>15296.6</v>
       </c>
       <c r="Q2">
-        <v>0.01672015571837101</v>
+        <v>0.03826627741462597</v>
       </c>
       <c r="R2">
-        <v>0.206929845806087</v>
+        <v>0.5628902929520039</v>
       </c>
       <c r="S2">
-        <v>1303.399999999999</v>
+        <v>733.7999999999993</v>
       </c>
       <c r="T2">
-        <v>0.1690202943655579</v>
+        <v>0.04577552649965062</v>
       </c>
       <c r="U2">
-        <v>58480.5</v>
+        <v>77360.3</v>
       </c>
       <c r="V2">
-        <v>0.1525886091802868</v>
+        <v>0.1935260581226344</v>
       </c>
       <c r="W2">
-        <v>0.1669726241618302</v>
+        <v>0.1480299425380022</v>
       </c>
       <c r="X2">
-        <v>0.08771436393765912</v>
+        <v>0.06862902734486423</v>
       </c>
       <c r="Y2">
-        <v>0.07925826022417108</v>
+        <v>0.07940091519313799</v>
       </c>
       <c r="Z2">
-        <v>0.9393842958576941</v>
+        <v>0.9700369365408266</v>
       </c>
       <c r="AA2">
-        <v>0.159179037964273</v>
+        <v>0.148660898225385</v>
       </c>
       <c r="AB2">
-        <v>0.07578451646397372</v>
+        <v>0.06093873474713649</v>
       </c>
       <c r="AC2">
-        <v>0.08339452150029927</v>
+        <v>0.08772216347824849</v>
       </c>
       <c r="AD2">
-        <v>254629.5</v>
+        <v>329922.7</v>
       </c>
       <c r="AE2">
-        <v>3013.210992866035</v>
+        <v>14.29362379766415</v>
       </c>
       <c r="AF2">
-        <v>257642.7109928661</v>
+        <v>329936.9936237977</v>
       </c>
       <c r="AG2">
-        <v>199162.2109928661</v>
+        <v>252576.6936237977</v>
       </c>
       <c r="AH2">
-        <v>0.4020022299525797</v>
+        <v>0.4521679377847652</v>
       </c>
       <c r="AI2">
-        <v>0.5858800935714744</v>
+        <v>0.6009916022815114</v>
       </c>
       <c r="AJ2">
-        <v>0.3419573894390221</v>
+        <v>0.3871989003098585</v>
       </c>
       <c r="AK2">
-        <v>0.5223614305836053</v>
+        <v>0.5355428820262085</v>
       </c>
       <c r="AL2">
-        <v>5056.9</v>
+        <v>12097.1</v>
       </c>
       <c r="AM2">
-        <v>5056.9</v>
+        <v>12097.1</v>
       </c>
       <c r="AN2">
-        <v>5.613955832590331</v>
+        <v>6.736550592526557</v>
       </c>
       <c r="AO2">
-        <v>8.451699657893176</v>
+        <v>3.90564680791264</v>
       </c>
       <c r="AP2">
-        <v>4.391038179138656</v>
+        <v>5.157255548314176</v>
       </c>
       <c r="AQ2">
-        <v>8.451699657893176</v>
+        <v>3.90564680791264</v>
       </c>
     </row>
     <row r="3">
@@ -725,103 +728,100 @@
         </is>
       </c>
       <c r="D3">
-        <v>1.206</v>
-      </c>
-      <c r="E3">
-        <v>0.752</v>
+        <v>1.147</v>
       </c>
       <c r="G3">
-        <v>0.05901225399183067</v>
+        <v>0.08215619418736808</v>
       </c>
       <c r="H3">
-        <v>0.05901225399183067</v>
+        <v>0.08215619418736808</v>
       </c>
       <c r="I3">
-        <v>0.07158821227036349</v>
+        <v>0.05527866134769722</v>
       </c>
       <c r="J3">
-        <v>0.05673615815610901</v>
+        <v>0.05342762550348209</v>
       </c>
       <c r="K3">
-        <v>186.1</v>
+        <v>196.7</v>
       </c>
       <c r="L3">
-        <v>0.02764203490531006</v>
+        <v>0.03193700276018834</v>
       </c>
       <c r="M3">
-        <v>55.4</v>
+        <v>97.2</v>
       </c>
       <c r="N3">
-        <v>0.01109042499949953</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="O3">
-        <v>0.2976894142933906</v>
+        <v>0.4941535332994408</v>
       </c>
       <c r="P3">
-        <v>52.6</v>
+        <v>97.2</v>
       </c>
       <c r="Q3">
-        <v>0.01052989810421797</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="R3">
-        <v>0.2826437399247717</v>
+        <v>0.4941535332994408</v>
       </c>
       <c r="S3">
-        <v>2.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05054151624548731</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1711.1</v>
+        <v>3381.4</v>
       </c>
       <c r="V3">
-        <v>0.3425419894701018</v>
+        <v>0.9174874508207842</v>
       </c>
       <c r="W3">
-        <v>0.06784542471746263</v>
+        <v>0.06916315049226442</v>
       </c>
       <c r="X3">
-        <v>0.08091410973827544</v>
+        <v>0.06463553811180858</v>
       </c>
       <c r="Y3">
-        <v>-0.01306868502081281</v>
+        <v>0.004527612380455834</v>
       </c>
       <c r="Z3">
-        <v>3.333313851747497</v>
+        <v>8.290554397970546</v>
       </c>
       <c r="AA3">
-        <v>0.1891194218766949</v>
+        <v>0.4429446355910167</v>
       </c>
       <c r="AB3">
-        <v>0.07614050965222846</v>
+        <v>0.06115882700793634</v>
       </c>
       <c r="AC3">
-        <v>0.1129789122244664</v>
+        <v>0.3817858085830804</v>
       </c>
       <c r="AD3">
-        <v>461.2</v>
+        <v>290.1</v>
       </c>
       <c r="AE3">
-        <v>10.26180444888911</v>
+        <v>14.29362379766415</v>
       </c>
       <c r="AF3">
-        <v>471.4618044488891</v>
+        <v>304.3936237976642</v>
       </c>
       <c r="AG3">
-        <v>-1239.638195551111</v>
+        <v>-3077.006376202336</v>
       </c>
       <c r="AH3">
-        <v>0.08624151212610182</v>
+        <v>0.07629116274732557</v>
       </c>
       <c r="AI3">
-        <v>0.09255670417040597</v>
+        <v>0.05734950910370558</v>
       </c>
       <c r="AJ3">
-        <v>-0.3300718382263966</v>
+        <v>-5.056760261510153</v>
       </c>
       <c r="AK3">
-        <v>-0.3664682629285417</v>
+        <v>-1.597371417414577</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.9339435421813617</v>
+        <v>0.8206042090970809</v>
       </c>
       <c r="AP3">
-        <v>-2.510303745395308</v>
+        <v>-8.703910319649061</v>
       </c>
     </row>
     <row r="4">
@@ -853,46 +853,49 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0181</v>
+        <v>0.0475</v>
       </c>
       <c r="E4">
-        <v>0.142</v>
+        <v>0.07730000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.0194</v>
       </c>
       <c r="G4">
-        <v>0.07744827342076852</v>
+        <v>0.06919331729865348</v>
       </c>
       <c r="H4">
-        <v>0.07744827342076852</v>
+        <v>0.06919331729865348</v>
       </c>
       <c r="I4">
-        <v>0.09180836375774321</v>
+        <v>0.07238944822981024</v>
       </c>
       <c r="J4">
-        <v>0.09180836375774321</v>
+        <v>0.0709549012374512</v>
       </c>
       <c r="K4">
-        <v>1849.9</v>
+        <v>1864.4</v>
       </c>
       <c r="L4">
-        <v>0.08185543106957646</v>
+        <v>0.06043475160292774</v>
       </c>
       <c r="M4">
-        <v>356</v>
+        <v>683</v>
       </c>
       <c r="N4">
-        <v>0.01857233035793471</v>
+        <v>0.03028556225611919</v>
       </c>
       <c r="O4">
-        <v>0.1924428347478242</v>
+        <v>0.3663376957734392</v>
       </c>
       <c r="P4">
-        <v>356</v>
+        <v>683</v>
       </c>
       <c r="Q4">
-        <v>0.01857233035793471</v>
+        <v>0.03028556225611919</v>
       </c>
       <c r="R4">
-        <v>0.1924428347478242</v>
+        <v>0.3663376957734392</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,73 +904,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2122.6</v>
+        <v>1467.1</v>
       </c>
       <c r="V4">
-        <v>0.1107349112858209</v>
+        <v>0.0650540971975878</v>
       </c>
       <c r="W4">
-        <v>0.1907605052848672</v>
+        <v>0.167005562671874</v>
       </c>
       <c r="X4">
-        <v>0.08956593216461842</v>
+        <v>0.07053245931422591</v>
       </c>
       <c r="Y4">
-        <v>0.1011945731202488</v>
+        <v>0.09647310335764811</v>
       </c>
       <c r="Z4">
-        <v>1.81299528914182</v>
+        <v>2.121500532957398</v>
       </c>
       <c r="AA4">
-        <v>0.166448130996607</v>
+        <v>0.1505308607911922</v>
       </c>
       <c r="AB4">
-        <v>0.07602761202957856</v>
+        <v>0.06079011905119952</v>
       </c>
       <c r="AC4">
-        <v>0.09042051896702846</v>
+        <v>0.08974074173999272</v>
       </c>
       <c r="AD4">
-        <v>5500.4</v>
+        <v>5265.5</v>
       </c>
       <c r="AE4">
-        <v>145.3385121025342</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>5645.738512102534</v>
+        <v>5265.5</v>
       </c>
       <c r="AG4">
-        <v>3523.138512102534</v>
+        <v>3798.4</v>
       </c>
       <c r="AH4">
-        <v>0.2275219533228717</v>
+        <v>0.1892873191336389</v>
       </c>
       <c r="AI4">
-        <v>0.3358391973153527</v>
+        <v>0.27590452985407</v>
       </c>
       <c r="AJ4">
-        <v>0.1552628983933063</v>
+        <v>0.1441496144271055</v>
       </c>
       <c r="AK4">
-        <v>0.2398611997755623</v>
+        <v>0.2156050268484566</v>
       </c>
       <c r="AL4">
-        <v>154.3</v>
+        <v>148.4</v>
       </c>
       <c r="AM4">
-        <v>154.3</v>
+        <v>148.4</v>
       </c>
       <c r="AN4">
-        <v>2.526712297303505</v>
+        <v>2.250213675213675</v>
       </c>
       <c r="AO4">
-        <v>13.19118600129618</v>
+        <v>15.04851752021563</v>
       </c>
       <c r="AP4">
-        <v>1.618420006478264</v>
+        <v>1.623247863247863</v>
       </c>
       <c r="AQ4">
-        <v>13.19118600129618</v>
+        <v>15.04851752021563</v>
       </c>
     </row>
     <row r="5">
@@ -987,46 +990,49 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.114</v>
+        <v>0.0919</v>
       </c>
       <c r="E5">
-        <v>0.115</v>
+        <v>0.0437</v>
+      </c>
+      <c r="F5">
+        <v>0.623</v>
       </c>
       <c r="G5">
-        <v>0.04679382470119522</v>
+        <v>0.09504705337145039</v>
       </c>
       <c r="H5">
-        <v>0.04679382470119522</v>
+        <v>0.09504705337145039</v>
       </c>
       <c r="I5">
-        <v>0.09084872441868273</v>
+        <v>0.0935306134979129</v>
       </c>
       <c r="J5">
-        <v>0.08922884581474691</v>
+        <v>0.08813303237953879</v>
       </c>
       <c r="K5">
-        <v>6887</v>
+        <v>7018.8</v>
       </c>
       <c r="L5">
-        <v>0.06859561752988048</v>
+        <v>0.05903265770596206</v>
       </c>
       <c r="M5">
-        <v>1082.3</v>
+        <v>3787</v>
       </c>
       <c r="N5">
-        <v>0.008660741864600188</v>
+        <v>0.02727213151115838</v>
       </c>
       <c r="O5">
-        <v>0.1571511543487731</v>
+        <v>0.539550920385251</v>
       </c>
       <c r="P5">
-        <v>1082.3</v>
+        <v>3787</v>
       </c>
       <c r="Q5">
-        <v>0.008660741864600188</v>
+        <v>0.02727213151115838</v>
       </c>
       <c r="R5">
-        <v>0.1571511543487731</v>
+        <v>0.539550920385251</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,73 +1041,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>8770.1</v>
+        <v>8020.1</v>
       </c>
       <c r="V5">
-        <v>0.07017977661159577</v>
+        <v>0.05775685818131538</v>
       </c>
       <c r="W5">
-        <v>0.1431847430387932</v>
+        <v>0.1290543224041305</v>
       </c>
       <c r="X5">
-        <v>0.08586279571069982</v>
+        <v>0.06672559537550253</v>
       </c>
       <c r="Y5">
-        <v>0.05732194732809334</v>
+        <v>0.06232872702862792</v>
       </c>
       <c r="Z5">
-        <v>1.702475735787593</v>
+        <v>1.665560933242745</v>
       </c>
       <c r="AA5">
-        <v>0.1519099449319389</v>
+        <v>0.1467909356595777</v>
       </c>
       <c r="AB5">
-        <v>0.07554142089836886</v>
+        <v>0.06108735044307346</v>
       </c>
       <c r="AC5">
-        <v>0.07636852403357007</v>
+        <v>0.08570358521650426</v>
       </c>
       <c r="AD5">
-        <v>25769.2</v>
+        <v>18895</v>
       </c>
       <c r="AE5">
-        <v>331.9403418212739</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>26101.14034182128</v>
+        <v>18895</v>
       </c>
       <c r="AG5">
-        <v>17331.04034182127</v>
+        <v>10874.9</v>
       </c>
       <c r="AH5">
-        <v>0.1727781814571039</v>
+        <v>0.1197745613918317</v>
       </c>
       <c r="AI5">
-        <v>0.3212746962302307</v>
+        <v>0.2322845390328997</v>
       </c>
       <c r="AJ5">
-        <v>0.1217946342472228</v>
+        <v>0.07262783618482301</v>
       </c>
       <c r="AK5">
-        <v>0.2391400672322449</v>
+        <v>0.1483127648344814</v>
       </c>
       <c r="AL5">
-        <v>2176.7</v>
+        <v>2305.2</v>
       </c>
       <c r="AM5">
-        <v>2176.7</v>
+        <v>2305.2</v>
       </c>
       <c r="AN5">
-        <v>2.696651318543324</v>
+        <v>1.630144077301354</v>
       </c>
       <c r="AO5">
-        <v>4.150824642807921</v>
+        <v>4.824093354155822</v>
       </c>
       <c r="AP5">
-        <v>1.813629169299003</v>
+        <v>0.9382193080838581</v>
       </c>
       <c r="AQ5">
-        <v>4.150824642807921</v>
+        <v>4.824093354155822</v>
       </c>
     </row>
     <row r="6">
@@ -1121,121 +1127,124 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.183</v>
+        <v>0.137</v>
       </c>
       <c r="E6">
-        <v>0.34</v>
+        <v>0.171</v>
+      </c>
+      <c r="F6">
+        <v>0.025</v>
       </c>
       <c r="G6">
-        <v>0.1713976986965688</v>
+        <v>0.1948765224686518</v>
       </c>
       <c r="H6">
-        <v>0.1713976986965688</v>
+        <v>0.1948765224686518</v>
       </c>
       <c r="I6">
-        <v>0.1945140189588403</v>
+        <v>0.1795475023060411</v>
       </c>
       <c r="J6">
-        <v>0.1666064211746934</v>
+        <v>0.1531496418830021</v>
       </c>
       <c r="K6">
-        <v>22044.5</v>
+        <v>18095.2</v>
       </c>
       <c r="L6">
-        <v>0.1358043781195056</v>
+        <v>0.09681734228498175</v>
       </c>
       <c r="M6">
-        <v>6217.799999999999</v>
+        <v>11463.2</v>
       </c>
       <c r="N6">
-        <v>0.02655747199587231</v>
+        <v>0.04885362408893821</v>
       </c>
       <c r="O6">
-        <v>0.2820567488489192</v>
+        <v>0.6334939652504531</v>
       </c>
       <c r="P6">
-        <v>4917.2</v>
+        <v>10729.4</v>
       </c>
       <c r="Q6">
-        <v>0.02100234830616992</v>
+        <v>0.04572633071915815</v>
       </c>
       <c r="R6">
-        <v>0.2230579056000363</v>
+        <v>0.5929417746142623</v>
       </c>
       <c r="S6">
-        <v>1300.599999999999</v>
+        <v>733.7999999999993</v>
       </c>
       <c r="T6">
-        <v>0.2091736627102833</v>
+        <v>0.06401353897689993</v>
       </c>
       <c r="U6">
-        <v>45876.7</v>
+        <v>64491.7</v>
       </c>
       <c r="V6">
-        <v>0.1959485952447868</v>
+        <v>0.2748493674241553</v>
       </c>
       <c r="W6">
-        <v>0.2867901798317338</v>
+        <v>0.2017234652129806</v>
       </c>
       <c r="X6">
-        <v>0.1184536348368396</v>
+        <v>0.1122853155817656</v>
       </c>
       <c r="Y6">
-        <v>0.1683365449948941</v>
+        <v>0.08943814963121502</v>
       </c>
       <c r="Z6">
-        <v>0.6836334810881908</v>
+        <v>0.7007232167963258</v>
       </c>
       <c r="AA6">
-        <v>0.1138977276793009</v>
+        <v>0.1073155097114626</v>
       </c>
       <c r="AB6">
-        <v>0.07509497014119829</v>
+        <v>0.05956231122263762</v>
       </c>
       <c r="AC6">
-        <v>0.0388027575381026</v>
+        <v>0.04775319848882495</v>
       </c>
       <c r="AD6">
-        <v>222898.7</v>
+        <v>305472.1</v>
       </c>
       <c r="AE6">
-        <v>2525.670334493338</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>225424.3703344933</v>
+        <v>305472.1</v>
       </c>
       <c r="AG6">
-        <v>179547.6703344933</v>
+        <v>240980.4</v>
       </c>
       <c r="AH6">
-        <v>0.4905322392928673</v>
+        <v>0.5655676864909921</v>
       </c>
       <c r="AI6">
-        <v>0.6696974780371262</v>
+        <v>0.689162332970033</v>
       </c>
       <c r="AJ6">
-        <v>0.4340319348411166</v>
+        <v>0.5066613515460315</v>
       </c>
       <c r="AK6">
-        <v>0.6175762242826495</v>
+        <v>0.6362357548165115</v>
       </c>
       <c r="AL6">
-        <v>2725.9</v>
+        <v>9643.5</v>
       </c>
       <c r="AM6">
-        <v>2725.9</v>
+        <v>9643.5</v>
       </c>
       <c r="AN6">
-        <v>6.728042427059626</v>
+        <v>8.805641313904383</v>
       </c>
       <c r="AO6">
-        <v>11.44183572398107</v>
+        <v>3.479805050033701</v>
       </c>
       <c r="AP6">
-        <v>5.419521709593578</v>
+        <v>6.946581917239589</v>
       </c>
       <c r="AQ6">
-        <v>11.44183572398107</v>
+        <v>3.479805050033701</v>
       </c>
     </row>
   </sheetData>
